--- a/biology/Zoologie/Adhemarius_tigrina/Adhemarius_tigrina.xlsx
+++ b/biology/Zoologie/Adhemarius_tigrina/Adhemarius_tigrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Adhemarius tigrina est une espèce de lépidoptères (papillons)  de la famille des Sphingidae, de la sous-famille des Smerinthinae, de la tribu des Ambulycini.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve du Pérou au Venezuela et en Bolivie. La sous-espèce coronata se trouve en Colombie.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure varie de 57 à 63mm. La femelle est plus grande que le mâle.
 </t>
@@ -573,7 +589,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les imagos volent de mars à juillet et à nouveau en octobre.
 Les chenilles de la sous-espèce de référence se nourrit probablement d' Ocotea veraguensis, d' Ocotea atirrensis, d' Ocotea sarah et d' Ocotea dendrodaphne. Les chenilles de la sous-espèce A.t.coronata se nourrissent probablement d’Ocotea veraguensis, d’Ocotea atirrensis et d’Ocotea dendrodaphne.
@@ -605,14 +623,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Adhemarius tigrina a été décrite par l'entomologiste autrichien Rudolf Felder, en 1874, sous le nom initial d’Ambulyx tigrina.
-Synonymie
-Ambulyx tigrina R. Felder, 1874 Protonyme
-Amblypterus tigrina coronata Gehlen, 1930
-Adhemarius simera (Lichy, 1943)
-Amplypterus tigrina simera Lichy, 1943</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Adhemarius tigrina a été décrite par l'entomologiste autrichien Rudolf Felder, en 1874, sous le nom initial d’Ambulyx tigrina.
+</t>
         </is>
       </c>
     </row>
@@ -637,10 +653,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ambulyx tigrina R. Felder, 1874 Protonyme
+Amblypterus tigrina coronata Gehlen, 1930
+Adhemarius simera (Lichy, 1943)
+Amplypterus tigrina simera Lichy, 1943</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adhemarius_tigrina</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adhemarius_tigrina</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes volent toute l'année.
 </t>
